--- a/data/input/management/202507.xlsx
+++ b/data/input/management/202507.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_108BC6AAE821F2C2841692D6D22D61007F58071E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78DD09FE-905B-4364-9A84-4A7CA2F6B0C6}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_108BC6AAE821F2C2841692D6D22D61007F58071E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22AAFA53-7941-44A1-BF7E-CDA9A57F1CBF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_914086" localSheetId="0">Φύλλο1!$A$2:$AQ$12</definedName>
+    <definedName name="_914086" localSheetId="0">Φύλλο1!$B$2:$AR$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
   <si>
     <t>Γ</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>ΗΜΕΡΟΜ.ΕΚΔΟΣΗΣ</t>
+  </si>
+  <si>
+    <t>ΔΙΑΔΡΟΜΗ</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,6 +402,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,188 +688,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP14"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.5703125" style="7" customWidth="1"/>
-    <col min="41" max="41" width="10" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.5703125" style="7" customWidth="1"/>
+    <col min="42" max="42" width="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>2103441</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>45825</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>996866969</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -878,59 +883,59 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AI2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" t="s">
-        <v>4</v>
-      </c>
       <c r="AL2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" t="s">
         <v>5</v>
       </c>
-      <c r="AM2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="7">
+      <c r="AN2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="7">
         <v>14.54</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>20250005566033</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AQ2" s="1">
         <v>45825</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>405676</v>
       </c>
-      <c r="D3" s="1">
-        <v>45827</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E3" s="1">
+        <v>45827</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>996866969</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
@@ -943,59 +948,59 @@
       <c r="R3">
         <v>0</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ3" t="s">
+      <c r="AI3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" t="s">
-        <v>4</v>
-      </c>
       <c r="AL3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" t="s">
         <v>8</v>
       </c>
-      <c r="AM3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN3" s="7">
+      <c r="AN3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="7">
         <v>0.02</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>20250005615031</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AQ3" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>1902746</v>
       </c>
-      <c r="D4" s="1">
-        <v>45827</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" s="1">
+        <v>45827</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>996866969</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
@@ -1008,59 +1013,59 @@
       <c r="R4">
         <v>0</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
         <v>3</v>
       </c>
-      <c r="AH4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="AI4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" t="s">
         <v>10</v>
       </c>
-      <c r="AK4" t="s">
-        <v>4</v>
-      </c>
       <c r="AL4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM4" t="s">
         <v>10</v>
       </c>
-      <c r="AM4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN4" s="7">
+      <c r="AN4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="7">
         <v>0.03</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>20250005615033</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AQ4" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1902747</v>
       </c>
-      <c r="D5" s="1">
-        <v>45827</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" s="1">
+        <v>45827</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>7</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>996866969</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
@@ -1073,59 +1078,59 @@
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
         <v>3</v>
       </c>
-      <c r="AH5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ5" t="s">
+      <c r="AI5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" t="s">
         <v>8</v>
       </c>
-      <c r="AK5" t="s">
-        <v>4</v>
-      </c>
       <c r="AL5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM5" t="s">
         <v>8</v>
       </c>
-      <c r="AM5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN5" s="7">
+      <c r="AN5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="7">
         <v>0.02</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>20250005615034</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AQ5" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>1902748</v>
       </c>
-      <c r="D6" s="1">
-        <v>45827</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6" s="1">
+        <v>45827</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>7</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>996866969</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
@@ -1138,59 +1143,59 @@
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
         <v>3</v>
       </c>
-      <c r="AH6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="AI6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK6" t="s">
         <v>11</v>
       </c>
-      <c r="AK6" t="s">
-        <v>4</v>
-      </c>
       <c r="AL6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="s">
         <v>11</v>
       </c>
-      <c r="AM6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN6" s="7">
+      <c r="AN6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="7">
         <v>0.01</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>20250005615035</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AQ6" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>1902749</v>
       </c>
-      <c r="D7" s="1">
-        <v>45827</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E7" s="1">
+        <v>45827</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>996866969</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
@@ -1203,59 +1208,59 @@
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
         <v>3</v>
       </c>
-      <c r="AH7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ7" t="s">
+      <c r="AI7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK7" t="s">
         <v>11</v>
       </c>
-      <c r="AK7" t="s">
-        <v>4</v>
-      </c>
       <c r="AL7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM7" t="s">
         <v>11</v>
       </c>
-      <c r="AM7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN7" s="7">
+      <c r="AN7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="7">
         <v>0.01</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>20250005615036</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AQ7" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>1902750</v>
       </c>
-      <c r="D8" s="1">
-        <v>45827</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="E8" s="1">
+        <v>45827</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>7</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>996866969</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -1268,59 +1273,59 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
         <v>3</v>
       </c>
-      <c r="AH8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ8" t="s">
+      <c r="AI8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK8" t="s">
         <v>12</v>
       </c>
-      <c r="AK8" t="s">
-        <v>4</v>
-      </c>
       <c r="AL8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM8" t="s">
         <v>12</v>
       </c>
-      <c r="AM8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN8" s="7">
+      <c r="AN8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="7">
         <v>0.05</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>20250005615037</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AQ8" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>1902751</v>
       </c>
-      <c r="D9" s="1">
-        <v>45827</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E9" s="1">
+        <v>45827</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>7</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>996866969</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
@@ -1333,59 +1338,59 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ9" t="s">
+      <c r="AI9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK9" t="s">
         <v>11</v>
       </c>
-      <c r="AK9" t="s">
-        <v>4</v>
-      </c>
       <c r="AL9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM9" t="s">
         <v>11</v>
       </c>
-      <c r="AM9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN9" s="7">
+      <c r="AN9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="7">
         <v>0.01</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>20250005615038</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AQ9" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>1902752</v>
       </c>
-      <c r="D10" s="1">
-        <v>45827</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E10" s="1">
+        <v>45827</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>7</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>996866969</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -1398,59 +1403,59 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
         <v>3</v>
       </c>
-      <c r="AH10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ10" t="s">
+      <c r="AI10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK10" t="s">
         <v>8</v>
       </c>
-      <c r="AK10" t="s">
-        <v>4</v>
-      </c>
       <c r="AL10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM10" t="s">
         <v>8</v>
       </c>
-      <c r="AM10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN10" s="7">
+      <c r="AN10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO10" s="7">
         <v>0.02</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>20250005615039</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AQ10" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>405688</v>
       </c>
-      <c r="D11" s="1">
-        <v>45827</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1</v>
+      <c r="E11" s="1">
+        <v>45827</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>1</v>
       </c>
       <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>996866969</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
@@ -1463,59 +1468,59 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
         <v>3</v>
       </c>
-      <c r="AH11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ11" t="s">
+      <c r="AI11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK11" t="s">
         <v>14</v>
       </c>
-      <c r="AK11" t="s">
-        <v>4</v>
-      </c>
       <c r="AL11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM11" t="s">
         <v>14</v>
       </c>
-      <c r="AM11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN11" s="7">
+      <c r="AN11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO11" s="7">
         <v>0.52</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>20250005615032</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AQ11" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>1005741</v>
       </c>
-      <c r="D12" s="1">
-        <v>45827</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="1">
+        <v>45827</v>
+      </c>
+      <c r="G12" t="s">
         <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>1</v>
       </c>
       <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>996866969</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -1528,36 +1533,39 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
         <v>3</v>
       </c>
-      <c r="AH12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ12" t="s">
+      <c r="AI12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK12" t="s">
         <v>8</v>
       </c>
-      <c r="AK12" t="s">
-        <v>4</v>
-      </c>
       <c r="AL12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM12" t="s">
         <v>8</v>
       </c>
-      <c r="AM12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN12" s="7">
+      <c r="AN12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO12" s="7">
         <v>0.02</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>20250005615040</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AQ12" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AN14" s="8"/>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AO14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,23 +1573,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e2e773af-3e16-4636-9824-83afac0d94b9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Έγγραφο" ma:contentTypeID="0x01010098545D290BE0734BA8B6C299E7534FBA" ma:contentTypeVersion="16" ma:contentTypeDescription="Δημιουργία νέου εγγράφου" ma:contentTypeScope="" ma:versionID="1115902cd30e7a4632b441f1c694ae99">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e2e773af-3e16-4636-9824-83afac0d94b9" xmlns:ns4="61143ee6-6e73-4235-8b48-cdabdd8f5d93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ad643e4c16ba55e677170d252372de3" ns3:_="" ns4:_="">
     <xsd:import namespace="e2e773af-3e16-4636-9824-83afac0d94b9"/>
@@ -1820,7 +1811,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e2e773af-3e16-4636-9824-83afac0d94b9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD221B77-47AD-4856-B2B5-64D64A46A07D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e2e773af-3e16-4636-9824-83afac0d94b9"/>
+    <ds:schemaRef ds:uri="61143ee6-6e73-4235-8b48-cdabdd8f5d93"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B80779A-4CDC-48FD-B9EC-35122FF647A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1837,29 +1864,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D05B3DF9-4413-4658-BD86-5975F6127D41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD221B77-47AD-4856-B2B5-64D64A46A07D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e2e773af-3e16-4636-9824-83afac0d94b9"/>
-    <ds:schemaRef ds:uri="61143ee6-6e73-4235-8b48-cdabdd8f5d93"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input/management/202507.xlsx
+++ b/data/input/management/202507.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_108BC6AAE821F2C2841692D6D22D61007F58071E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22AAFA53-7941-44A1-BF7E-CDA9A57F1CBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96096EDA-184C-42C6-A805-A771D1CFB426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{23C34820-C8D9-4F19-AF65-5DEBCC4DD227}"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="914086 04.07.2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_914086" localSheetId="0">Φύλλο1!$B$2:$AR$12</definedName>
+    <definedName name="_914086" localSheetId="0">'914086 04.07.2025'!$B$2:$AQ$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,6 +96,132 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
   <si>
+    <t>ΑΡ.ΠΑΡΟΧΗΣ</t>
+  </si>
+  <si>
+    <t>ΠΕΡΙΟΔΟΣ ΚΑΤΑΝΑΛΩΣΗΣ ΑΠΌ</t>
+  </si>
+  <si>
+    <t>ΠΕΡΙΟΔΟΣ ΚΑΤΑΝΑΛΩΣΗΣ ΕΩΣ</t>
+  </si>
+  <si>
+    <t>ΗΜΕΡ.ΛΗΞΕΩΣ</t>
+  </si>
+  <si>
+    <t>ΗΜ.ΚΑΤΑΝΑΛΩΣΗΣ</t>
+  </si>
+  <si>
+    <t>ΠΕΡΙΦ.ΓΡΑΦ.</t>
+  </si>
+  <si>
+    <t>ΤΙΜΟΛΟΓΙΟ</t>
+  </si>
+  <si>
+    <t>ΙΔΙΟΚΤΗΤΗΣ</t>
+  </si>
+  <si>
+    <t>ΕΝΟΙΚΟΣ</t>
+  </si>
+  <si>
+    <t>ΔΙΕΥΘΥΝΣΗ</t>
+  </si>
+  <si>
+    <t>ΑΦΜ</t>
+  </si>
+  <si>
+    <t>ΑΡ.ΜΕΤΡΗΤΗ</t>
+  </si>
+  <si>
+    <t>ΔΙΑΜ.</t>
+  </si>
+  <si>
+    <t>ΠΡΟΗΓ.ΕΝΔ.</t>
+  </si>
+  <si>
+    <t>ΠΑΡ.ΕΝΔΕΙΞΗ</t>
+  </si>
+  <si>
+    <t>ΤΕΚΜ.</t>
+  </si>
+  <si>
+    <t>ΤΡΙΜ</t>
+  </si>
+  <si>
+    <t>ΠΡΟΣΘ</t>
+  </si>
+  <si>
+    <t>ΤΥΠΟΣ ΛΟΓΑΡΙΑΣΜΟΥ</t>
+  </si>
+  <si>
+    <t>ΚΥΒΙΚΑ 1</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ 1</t>
+  </si>
+  <si>
+    <t>ΚΥΒΙΚΑ 2</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ 2</t>
+  </si>
+  <si>
+    <t>ΚΥΒ.3</t>
+  </si>
+  <si>
+    <t>ΤΙΜ.3</t>
+  </si>
+  <si>
+    <t>ΚΥΒ.4</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ 4</t>
+  </si>
+  <si>
+    <t>ΚΥΒ.5</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ 5</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ</t>
+  </si>
+  <si>
+    <t>ΠΑΓΙΟ</t>
+  </si>
+  <si>
+    <t>ΤΕΑΠ</t>
+  </si>
+  <si>
+    <t>ΟΑΠ</t>
+  </si>
+  <si>
+    <t>ΦΠΑ ΤΙΜ.</t>
+  </si>
+  <si>
+    <t>ΦΠΑ ΛΟΙΠΩΝ</t>
+  </si>
+  <si>
+    <t>ΕΡΓΑΣΙΕΣ</t>
+  </si>
+  <si>
+    <t>ΔΙΑΦ.ΚΕΡΜ.</t>
+  </si>
+  <si>
+    <t>ΚΥΡΙΑ ΟΦ.</t>
+  </si>
+  <si>
+    <t>ΠΙΣΤΩΤΙΚΟ</t>
+  </si>
+  <si>
+    <t>ΟΦΕΙΛΗ</t>
+  </si>
+  <si>
+    <t>ΑΡ.ΠΑΡΑΣΤΑΤΙΚΟΥ</t>
+  </si>
+  <si>
+    <t>ΗΜΕΡΟΜ.ΕΚΔΟΣΗΣ</t>
+  </si>
+  <si>
     <t>Γ</t>
   </si>
   <si>
@@ -145,132 +271,6 @@
   </si>
   <si>
     <t>25ΗΣ ΜΑΡΤΙΟΥ 15  Δήμος ΤΑΥΡΟΥ ΤΚ 17778</t>
-  </si>
-  <si>
-    <t>ΑΡ.ΠΑΡΟΧΗΣ</t>
-  </si>
-  <si>
-    <t>ΠΕΡΙΟΔΟΣ ΚΑΤΑΝΑΛΩΣΗΣ ΑΠΌ</t>
-  </si>
-  <si>
-    <t>ΠΕΡΙΟΔΟΣ ΚΑΤΑΝΑΛΩΣΗΣ ΕΩΣ</t>
-  </si>
-  <si>
-    <t>ΗΜΕΡ.ΛΗΞΕΩΣ</t>
-  </si>
-  <si>
-    <t>ΗΜ.ΚΑΤΑΝΑΛΩΣΗΣ</t>
-  </si>
-  <si>
-    <t>ΠΕΡΙΦ.ΓΡΑΦ.</t>
-  </si>
-  <si>
-    <t>ΤΙΜΟΛΟΓΙΟ</t>
-  </si>
-  <si>
-    <t>ΙΔΙΟΚΤΗΤΗΣ</t>
-  </si>
-  <si>
-    <t>ΕΝΟΙΚΟΣ</t>
-  </si>
-  <si>
-    <t>ΔΙΕΥΘΥΝΣΗ</t>
-  </si>
-  <si>
-    <t>ΑΦΜ</t>
-  </si>
-  <si>
-    <t>ΑΡ.ΜΕΤΡΗΤΗ</t>
-  </si>
-  <si>
-    <t>ΔΙΑΜ.</t>
-  </si>
-  <si>
-    <t>ΠΡΟΗΓ.ΕΝΔ.</t>
-  </si>
-  <si>
-    <t>ΠΑΡ.ΕΝΔΕΙΞΗ</t>
-  </si>
-  <si>
-    <t>ΤΕΚΜ.</t>
-  </si>
-  <si>
-    <t>ΤΡΙΜ</t>
-  </si>
-  <si>
-    <t>ΠΡΟΣΘ</t>
-  </si>
-  <si>
-    <t>ΤΥΠΟΣ ΛΟΓΑΡΙΑΣΜΟΥ</t>
-  </si>
-  <si>
-    <t>ΚΥΒΙΚΑ 1</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ 1</t>
-  </si>
-  <si>
-    <t>ΚΥΒΙΚΑ 2</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ 2</t>
-  </si>
-  <si>
-    <t>ΚΥΒ.3</t>
-  </si>
-  <si>
-    <t>ΤΙΜ.3</t>
-  </si>
-  <si>
-    <t>ΚΥΒ.4</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ 4</t>
-  </si>
-  <si>
-    <t>ΚΥΒ.5</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ 5</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ</t>
-  </si>
-  <si>
-    <t>ΠΑΓΙΟ</t>
-  </si>
-  <si>
-    <t>ΤΕΑΠ</t>
-  </si>
-  <si>
-    <t>ΟΑΠ</t>
-  </si>
-  <si>
-    <t>ΦΠΑ ΤΙΜ.</t>
-  </si>
-  <si>
-    <t>ΦΠΑ ΛΟΙΠΩΝ</t>
-  </si>
-  <si>
-    <t>ΕΡΓΑΣΙΕΣ</t>
-  </si>
-  <si>
-    <t>ΔΙΑΦ.ΚΕΡΜ.</t>
-  </si>
-  <si>
-    <t>ΚΥΡΙΑ ΟΦ.</t>
-  </si>
-  <si>
-    <t>ΠΙΣΤΩΤΙΚΟ</t>
-  </si>
-  <si>
-    <t>ΟΦΕΙΛΗ</t>
-  </si>
-  <si>
-    <t>ΑΡ.ΠΑΡΑΣΤΑΤΙΚΟΥ</t>
-  </si>
-  <si>
-    <t>ΗΜΕΡΟΜ.ΕΚΔΟΣΗΣ</t>
   </si>
   <si>
     <t>ΔΙΑΔΡΟΜΗ</t>
@@ -384,7 +384,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,13 +399,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Κανονικό 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Κανονικό 2" xfId="1" xr:uid="{70E09166-E15F-4A69-867F-0CB5AC7EC0F5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="914086" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="914086" connectionId="1" xr16:uid="{B0642D2C-D4F2-4A5E-9FBF-C694BF6E80CD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,16 +687,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1121E425-F335-4152-AC34-FDA3CD4184E3}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
@@ -706,167 +708,173 @@
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
     <col min="20" max="20" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" customWidth="1"/>
+    <col min="25" max="34" width="8.7109375" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="6" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11.5703125" style="7" customWidth="1"/>
-    <col min="42" max="42" width="10" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.7109375" customWidth="1"/>
+    <col min="42" max="42" width="20.42578125" customWidth="1"/>
+    <col min="43" max="43" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AP1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2103441</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>45825</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="L2">
         <v>996866969</v>
@@ -887,30 +895,30 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AK2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="AL2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="AN2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AO2" s="7">
         <v>14.54</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="8">
         <v>20250005566033</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="6">
         <v>45825</v>
       </c>
     </row>
@@ -918,20 +926,20 @@
       <c r="B3">
         <v>405676</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <v>45827</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="L3">
         <v>996866969</v>
@@ -952,30 +960,30 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="AN3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AO3" s="7">
         <v>0.02</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="8">
         <v>20250005615031</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3" s="6">
         <v>45827</v>
       </c>
     </row>
@@ -983,20 +991,20 @@
       <c r="B4">
         <v>1902746</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>45827</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="L4">
         <v>996866969</v>
@@ -1017,30 +1025,30 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="AL4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="AN4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AO4" s="7">
         <v>0.03</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="8">
         <v>20250005615033</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4" s="6">
         <v>45827</v>
       </c>
     </row>
@@ -1048,20 +1056,20 @@
       <c r="B5">
         <v>1902747</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>45827</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="L5">
         <v>996866969</v>
@@ -1082,30 +1090,30 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="AL5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="AN5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AO5" s="7">
         <v>0.02</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="8">
         <v>20250005615034</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AQ5" s="6">
         <v>45827</v>
       </c>
     </row>
@@ -1113,20 +1121,20 @@
       <c r="B6">
         <v>1902748</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>45827</v>
       </c>
       <c r="G6" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="L6">
         <v>996866969</v>
@@ -1147,30 +1155,30 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="AL6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="AN6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AO6" s="7">
         <v>0.01</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="8">
         <v>20250005615035</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6" s="6">
         <v>45827</v>
       </c>
     </row>
@@ -1178,20 +1186,20 @@
       <c r="B7">
         <v>1902749</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>45827</v>
       </c>
       <c r="G7" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="L7">
         <v>996866969</v>
@@ -1212,30 +1220,30 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="AL7" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="AN7" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AO7" s="7">
         <v>0.01</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="8">
         <v>20250005615036</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AQ7" s="6">
         <v>45827</v>
       </c>
     </row>
@@ -1243,20 +1251,20 @@
       <c r="B8">
         <v>1902750</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>45827</v>
       </c>
       <c r="G8" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="L8">
         <v>996866969</v>
@@ -1277,30 +1285,30 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="AL8" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="AN8" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AO8" s="7">
         <v>0.05</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" s="8">
         <v>20250005615037</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AQ8" s="6">
         <v>45827</v>
       </c>
     </row>
@@ -1308,20 +1316,20 @@
       <c r="B9">
         <v>1902751</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>45827</v>
       </c>
       <c r="G9" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="L9">
         <v>996866969</v>
@@ -1342,30 +1350,30 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AI9" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="AL9" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="AN9" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AO9" s="7">
         <v>0.01</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" s="8">
         <v>20250005615038</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AQ9" s="6">
         <v>45827</v>
       </c>
     </row>
@@ -1373,20 +1381,20 @@
       <c r="B10">
         <v>1902752</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <v>45827</v>
       </c>
       <c r="G10" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="L10">
         <v>996866969</v>
@@ -1407,30 +1415,30 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="AL10" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="AN10" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AO10" s="7">
         <v>0.02</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" s="8">
         <v>20250005615039</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="AQ10" s="6">
         <v>45827</v>
       </c>
     </row>
@@ -1438,20 +1446,20 @@
       <c r="B11">
         <v>405688</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>45827</v>
       </c>
       <c r="G11" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="L11">
         <v>996866969</v>
@@ -1472,30 +1480,30 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AI11" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="AL11" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="AN11" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AO11" s="7">
         <v>0.52</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" s="8">
         <v>20250005615032</v>
       </c>
-      <c r="AQ11" s="1">
+      <c r="AQ11" s="6">
         <v>45827</v>
       </c>
     </row>
@@ -1503,20 +1511,20 @@
       <c r="B12">
         <v>1005741</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <v>45827</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="L12">
         <v>996866969</v>
@@ -1537,337 +1545,37 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AK12" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="AL12" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="AN12" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AO12" s="7">
         <v>0.02</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" s="8">
         <v>20250005615040</v>
       </c>
-      <c r="AQ12" s="1">
+      <c r="AQ12" s="6">
         <v>45827</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AO14" s="8"/>
+      <c r="AO14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Έγγραφο" ma:contentTypeID="0x01010098545D290BE0734BA8B6C299E7534FBA" ma:contentTypeVersion="16" ma:contentTypeDescription="Δημιουργία νέου εγγράφου" ma:contentTypeScope="" ma:versionID="1115902cd30e7a4632b441f1c694ae99">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e2e773af-3e16-4636-9824-83afac0d94b9" xmlns:ns4="61143ee6-6e73-4235-8b48-cdabdd8f5d93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ad643e4c16ba55e677170d252372de3" ns3:_="" ns4:_="">
-    <xsd:import namespace="e2e773af-3e16-4636-9824-83afac0d94b9"/>
-    <xsd:import namespace="61143ee6-6e73-4235-8b48-cdabdd8f5d93"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e2e773af-3e16-4636-9824-83afac0d94b9" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_activity" ma:index="19" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="21" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="61143ee6-6e73-4235-8b48-cdabdd8f5d93" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Κοινή χρήση με" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Κοινή χρήση με λεπτομέρειες" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Κοινή χρήση κατακερματισμού υπόδειξης" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Τύπος περιεχομένου"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Τίτλος"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e2e773af-3e16-4636-9824-83afac0d94b9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD221B77-47AD-4856-B2B5-64D64A46A07D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e2e773af-3e16-4636-9824-83afac0d94b9"/>
-    <ds:schemaRef ds:uri="61143ee6-6e73-4235-8b48-cdabdd8f5d93"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B80779A-4CDC-48FD-B9EC-35122FF647A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="61143ee6-6e73-4235-8b48-cdabdd8f5d93"/>
-    <ds:schemaRef ds:uri="e2e773af-3e16-4636-9824-83afac0d94b9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D05B3DF9-4413-4658-BD86-5975F6127D41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>